--- a/biology/Médecine/Fascia_pharyngo-basilaire/Fascia_pharyngo-basilaire.xlsx
+++ b/biology/Médecine/Fascia_pharyngo-basilaire/Fascia_pharyngo-basilaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fascia pharyngo-basilaire (ou aponévrose céphalo-pharyngienne de Cruveilhier ou fascia céphalo-pharyngé de Luschka ou fascia fibreux du pharynx de Luschka ou membrane pharyngo-basilaire de Gegenbaur[1]), est une lame fibreuse située entre les couches muqueuse et musculaire de la paroi postérieure du pharynx.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fascia pharyngo-basilaire (ou aponévrose céphalo-pharyngienne de Cruveilhier ou fascia céphalo-pharyngé de Luschka ou fascia fibreux du pharynx de Luschka ou membrane pharyngo-basilaire de Gegenbaur), est une lame fibreuse située entre les couches muqueuse et musculaire de la paroi postérieure du pharynx.
 Il est épais aux endroits où les fibres musculaires manquent.
 Il est relié à la partie basilaire de l'os occipital et à l'os pétreux.
 A mesure qu'il descend, il diminue en épaisseur et devient indistinct.
